--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sango_Card\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E6B7E-E7F8-4813-8757-9126E8B43BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D9D42-C573-41F9-BA9A-5EE63631A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="3420" windowWidth="23760" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,9 +178,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>spellRanges</t>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atkDurability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +237,26 @@
   </si>
   <si>
     <t>攻击部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellRanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,35 +1067,35 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="70.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="70.5" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1107,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>16</v>
@@ -1122,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>19</v>
@@ -1139,7 +1152,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,12 +1181,12 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1183,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>41</v>
@@ -1192,25 +1205,25 @@
         <v>42</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>43</v>
@@ -1227,7 +1240,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1281,12 +1294,12 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -1333,13 +1346,13 @@
       <c r="X5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -1355,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>6</v>
@@ -1386,7 +1399,7 @@
       <c r="X6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4">
         <v>250</v>
@@ -1440,7 +1453,7 @@
       <c r="X7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4">
         <v>250</v>
@@ -1494,7 +1507,7 @@
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4">
         <v>250</v>
@@ -1548,7 +1561,7 @@
       <c r="X9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4">
         <v>250</v>
@@ -1602,7 +1615,7 @@
       <c r="X10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1610,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4">
         <v>300</v>
@@ -1656,7 +1669,7 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4">
         <v>300</v>
@@ -1679,7 +1692,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1710,7 +1726,7 @@
       <c r="X12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4">
         <v>100</v>
@@ -1764,7 +1780,7 @@
       <c r="X13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1772,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4">
         <v>200</v>
@@ -1787,7 +1803,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1818,7 +1834,7 @@
       <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>150</v>
@@ -1840,8 +1856,11 @@
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4">
-        <v>2</v>
+      <c r="I15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
@@ -1872,7 +1891,7 @@
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4">
         <v>250</v>
@@ -1926,7 +1945,7 @@
       <c r="X16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1934,7 +1953,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4">
         <v>250</v>
@@ -1980,7 +1999,7 @@
       <c r="X17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1988,7 +2007,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4">
         <v>300</v>
@@ -2034,7 +2053,7 @@
       <c r="X18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2084,7 +2103,7 @@
       <c r="X19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2134,7 +2153,7 @@
       <c r="X20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2184,7 +2203,7 @@
       <c r="X21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2234,7 +2253,7 @@
       <c r="X22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2284,7 +2303,7 @@
       <c r="X23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2334,7 +2353,7 @@
       <c r="X24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2384,7 +2403,7 @@
       <c r="X25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2401,7 +2420,7 @@
       <c r="X26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2419,7 +2438,7 @@
       <c r="X27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2436,7 +2455,7 @@
       <c r="X28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2453,7 +2472,7 @@
       <c r="X29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2470,7 +2489,7 @@
       <c r="X30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2487,7 +2506,7 @@
       <c r="X31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2504,7 +2523,7 @@
       <c r="X32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2521,7 +2540,7 @@
       <c r="X33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2538,7 +2557,7 @@
       <c r="X34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2555,7 +2574,7 @@
       <c r="X35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2572,7 +2591,7 @@
       <c r="X36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2589,7 +2608,7 @@
       <c r="X37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2606,7 +2625,7 @@
       <c r="X38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2623,7 +2642,7 @@
       <c r="X39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2638,7 +2657,7 @@
       <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2653,7 +2672,7 @@
       <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2668,7 +2687,7 @@
       <c r="X42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2683,7 +2702,7 @@
       <c r="X43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2698,7 +2717,7 @@
       <c r="X44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2707,7 +2726,7 @@
       <c r="X45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2715,117 +2734,117 @@
       <c r="X46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D9D42-C573-41F9-BA9A-5EE63631A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7566E6C-9A67-485D-9207-7C13F4A92C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="3420" windowWidth="23760" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="420" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atkOffsetPoint</t>
-  </si>
-  <si>
     <t>攻击额外位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,15 +245,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4</t>
+    <t>2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
+    <t>atkOffsetPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1060,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1120,10 +1113,10 @@
         <v>15</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>16</v>
@@ -1135,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>19</v>
@@ -1196,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>41</v>
@@ -1205,25 +1198,25 @@
         <v>42</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>43</v>
@@ -1299,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -1352,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -1367,8 +1360,8 @@
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>63</v>
+      <c r="I6" s="4">
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>6</v>
@@ -1407,10 +1400,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1461,10 +1454,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1515,7 +1508,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4">
         <v>250</v>
@@ -1524,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1569,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1623,16 +1616,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -1677,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -1695,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1734,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4">
         <v>100</v>
@@ -1743,7 +1736,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
@@ -1788,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4">
         <v>200</v>
@@ -1804,6 +1797,9 @@
       </c>
       <c r="I14" s="4">
         <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1842,7 +1838,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4">
         <v>150</v>
@@ -1856,11 +1852,11 @@
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>64</v>
+      <c r="I15" s="4">
+        <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
@@ -1899,16 +1895,16 @@
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -1953,10 +1949,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -2007,7 +2003,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4">
         <v>300</v>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7566E6C-9A67-485D-9207-7C13F4A92C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74987C8D-93C0-4109-BFFC-5FBBE1F478F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="420" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,9 +86,6 @@
     <t>气力消耗</t>
   </si>
   <si>
-    <t>射程Min</t>
-  </si>
-  <si>
     <t>射程Max</t>
   </si>
   <si>
@@ -250,6 +247,10 @@
   </si>
   <si>
     <t>atkOffsetPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否远程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1061,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,31 +1108,31 @@
         <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -1179,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1189,37 +1190,37 @@
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="M3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1238,22 +1239,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>8</v>
@@ -1280,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -1292,14 +1293,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -1330,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1345,14 +1346,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1383,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1397,13 +1398,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1437,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1451,13 +1452,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1491,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1505,19 +1506,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1545,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1559,13 +1560,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1599,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1613,19 +1614,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -1653,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1667,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -1688,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1710,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1724,19 +1725,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
@@ -1764,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1778,16 +1779,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4">
         <v>15</v>
@@ -1796,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1821,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1835,16 +1836,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4">
         <v>25</v>
@@ -1856,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
@@ -1878,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1892,19 +1893,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -1932,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -1946,13 +1947,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4">
         <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="4">
-        <v>200</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1986,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -2000,13 +2001,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -2040,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2054,14 +2055,14 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4">
         <v>15</v>
@@ -2092,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -2104,14 +2105,14 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G20" s="4">
         <v>10</v>
@@ -2142,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -2154,14 +2155,14 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G21" s="4">
         <v>15</v>
@@ -2192,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -2208,10 +2209,10 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4">
         <v>20</v>
@@ -2219,8 +2220,8 @@
       <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="4">
-        <v>3</v>
+      <c r="I22" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>6</v>
@@ -2242,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -2254,14 +2255,14 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G23" s="4">
         <v>15</v>
@@ -2292,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -2304,14 +2305,14 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F24" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>15</v>
@@ -2342,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
@@ -2358,10 +2359,10 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F25" s="4">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G25" s="4">
         <v>20</v>
@@ -2369,8 +2370,8 @@
       <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="4">
-        <v>3</v>
+      <c r="I25" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -2392,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74987C8D-93C0-4109-BFFC-5FBBE1F478F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047302D4-8DCC-4D91-A13C-0A88EDA38E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="1620" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,34 @@
   </si>
   <si>
     <t>是否远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井阑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艨艟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1089,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2057,7 +2085,9 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="4">
         <v>15</v>
       </c>
@@ -2107,7 +2137,9 @@
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
@@ -2157,7 +2189,9 @@
       <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
@@ -2207,7 +2241,9 @@
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E22" s="4">
         <v>20</v>
       </c>
@@ -2257,7 +2293,9 @@
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E23" s="4">
         <v>15</v>
       </c>
@@ -2307,7 +2345,9 @@
       <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E24" s="4">
         <v>25</v>
       </c>
@@ -2357,7 +2397,9 @@
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E25" s="4">
         <v>35</v>
       </c>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047302D4-8DCC-4D91-A13C-0A88EDA38E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93678FFE-65C4-4651-B08D-7A631EDCC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="1620" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>艨艟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,35 +1105,35 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="70.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="70.44140625" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1174,7 +1190,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1219,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1278,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1332,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1368,7 +1384,7 @@
       <c r="X5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1421,7 +1437,7 @@
       <c r="X6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1445,6 +1461,9 @@
       </c>
       <c r="I7" s="4">
         <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>6</v>
@@ -1475,7 +1494,7 @@
       <c r="X7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1529,7 +1548,7 @@
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1553,6 +1572,9 @@
       </c>
       <c r="I9" s="4">
         <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
@@ -1583,7 +1605,7 @@
       <c r="X9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1637,7 +1659,7 @@
       <c r="X10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1661,6 +1683,9 @@
       </c>
       <c r="I11" s="4">
         <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -1691,7 +1716,7 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1714,10 +1739,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1748,7 +1773,7 @@
       <c r="X12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1786,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P13" s="4">
         <f>IFERROR(VLOOKUP(Q13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -1802,7 +1827,7 @@
       <c r="X13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1828,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1843,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14" s="4">
         <f>IFERROR(VLOOKUP(Q14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -1859,7 +1884,7 @@
       <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1900,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4">
         <f>IFERROR(VLOOKUP(Q15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -1916,7 +1941,7 @@
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1970,7 +1995,7 @@
       <c r="X16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2024,7 +2049,7 @@
       <c r="X17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2078,7 +2103,7 @@
       <c r="X18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2116,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19" s="4">
         <f>IFERROR(VLOOKUP(Q19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2130,7 +2155,7 @@
       <c r="X19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2168,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="4">
         <f>IFERROR(VLOOKUP(Q20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2182,7 +2207,7 @@
       <c r="X20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="4">
         <f>IFERROR(VLOOKUP(Q21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2234,7 +2259,7 @@
       <c r="X21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2272,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="4">
         <f>IFERROR(VLOOKUP(Q22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2286,7 +2311,7 @@
       <c r="X22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2324,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P23" s="4">
         <f>IFERROR(VLOOKUP(Q23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2338,7 +2363,7 @@
       <c r="X23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2390,7 +2415,7 @@
       <c r="X24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2428,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25" s="4">
         <f>IFERROR(VLOOKUP(Q25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
@@ -2442,7 +2467,7 @@
       <c r="X25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2459,7 +2484,7 @@
       <c r="X26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2477,7 +2502,7 @@
       <c r="X27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2494,7 +2519,7 @@
       <c r="X28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2511,7 +2536,7 @@
       <c r="X29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2528,7 +2553,7 @@
       <c r="X30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2545,7 +2570,7 @@
       <c r="X31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2562,7 +2587,7 @@
       <c r="X32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2579,7 +2604,7 @@
       <c r="X33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2596,7 +2621,7 @@
       <c r="X34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2613,7 +2638,7 @@
       <c r="X35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2630,7 +2655,7 @@
       <c r="X36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2647,7 +2672,7 @@
       <c r="X37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2664,7 +2689,7 @@
       <c r="X38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2681,7 +2706,7 @@
       <c r="X39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2696,7 +2721,7 @@
       <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2711,7 +2736,7 @@
       <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2726,7 +2751,7 @@
       <c r="X42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2741,7 +2766,7 @@
       <c r="X43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2756,7 +2781,7 @@
       <c r="X44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2765,7 +2790,7 @@
       <c r="X45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2773,117 +2798,117 @@
       <c r="X46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93678FFE-65C4-4651-B08D-7A631EDCC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F90A6FD-C07E-4C84-BB5D-DBAEF4E95E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,100 +201,101 @@
     <t>canDamageBoat</t>
   </si>
   <si>
+    <t>canDamageTeam</t>
+  </si>
+  <si>
+    <t>误伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canDamageTroop</t>
+  </si>
+  <si>
+    <t>攻击部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellRanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkOffsetPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井阑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艨艟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>canDamageBuilding</t>
-  </si>
-  <si>
-    <t>canDamageTeam</t>
-  </si>
-  <si>
-    <t>误伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canDamageTroop</t>
-  </si>
-  <si>
-    <t>攻击部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spellRanges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkOffsetPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井阑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投石船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艨艟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1106,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>14</v>
@@ -1161,7 +1162,7 @@
         <v>44</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>15</v>
@@ -1173,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>18</v>
@@ -1243,13 +1244,13 @@
         <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>48</v>
@@ -1258,10 +1259,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>42</v>
@@ -1445,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4">
         <v>25</v>
@@ -1463,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>6</v>
@@ -1502,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
@@ -1556,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4">
         <v>35</v>
@@ -1574,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
@@ -1613,7 +1614,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4">
         <v>25</v>
@@ -1667,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4">
         <v>30</v>
@@ -1685,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -1724,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4">
         <v>33</v>
@@ -1742,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1781,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -1835,7 +1836,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -1853,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1892,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>25</v>
@@ -1910,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
@@ -1949,7 +1950,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4">
         <v>30</v>
@@ -2003,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4">
         <v>35</v>
@@ -2057,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4">
         <v>40</v>
@@ -2111,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4">
         <v>15</v>
@@ -2163,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2215,7 +2216,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -2267,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4">
         <v>20</v>
@@ -2282,7 +2283,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>6</v>
@@ -2319,7 +2320,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4">
         <v>15</v>
@@ -2371,7 +2372,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4">
         <v>25</v>
@@ -2423,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="4">
         <v>35</v>
@@ -2438,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F90A6FD-C07E-4C84-BB5D-DBAEF4E95E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07198D9-3DAD-400A-B652-509F78DE6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>canDamageBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,35 +1106,35 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="70.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="70.5" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>14</v>
@@ -1191,7 +1191,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>56</v>
@@ -1259,7 +1259,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>50</v>
@@ -1279,7 +1279,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="X5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1438,7 +1438,7 @@
       <c r="X6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>6</v>
@@ -1495,7 +1495,7 @@
       <c r="X7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
@@ -1606,7 +1606,7 @@
       <c r="X9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="X10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -1717,7 +1717,7 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
@@ -1774,7 +1774,7 @@
       <c r="X12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="X13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -1885,7 +1885,7 @@
       <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
@@ -1942,7 +1942,7 @@
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -1996,7 +1996,7 @@
       <c r="X16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="X17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="X18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4">
         <v>15</v>
@@ -2156,7 +2156,7 @@
       <c r="X19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2208,7 +2208,7 @@
       <c r="X20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -2260,7 +2260,7 @@
       <c r="X21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="4">
         <v>20</v>
@@ -2283,7 +2283,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>6</v>
@@ -2312,7 +2312,7 @@
       <c r="X22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4">
         <v>15</v>
@@ -2364,7 +2364,7 @@
       <c r="X23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="4">
         <v>25</v>
@@ -2416,7 +2416,7 @@
       <c r="X24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4">
         <v>35</v>
@@ -2439,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -2468,7 +2468,7 @@
       <c r="X25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2485,7 +2485,7 @@
       <c r="X26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2503,7 +2503,7 @@
       <c r="X27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2520,7 +2520,7 @@
       <c r="X28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2537,7 +2537,7 @@
       <c r="X29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2554,7 +2554,7 @@
       <c r="X30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2571,7 +2571,7 @@
       <c r="X31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2588,7 +2588,7 @@
       <c r="X32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2605,7 +2605,7 @@
       <c r="X33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2622,7 +2622,7 @@
       <c r="X34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2639,7 +2639,7 @@
       <c r="X35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2656,7 +2656,7 @@
       <c r="X36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2673,7 +2673,7 @@
       <c r="X37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2690,7 +2690,7 @@
       <c r="X38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2707,7 +2707,7 @@
       <c r="X39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2722,7 +2722,7 @@
       <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2737,7 +2737,7 @@
       <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2752,7 +2752,7 @@
       <c r="X42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2767,7 +2767,7 @@
       <c r="X43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2782,7 +2782,7 @@
       <c r="X44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2791,7 +2791,7 @@
       <c r="X45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2799,117 +2799,117 @@
       <c r="X46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07198D9-3DAD-400A-B652-509F78DE6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC051BE-01ED-4482-BBBA-B9A7251A0D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="3828" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,181 +121,239 @@
     <t>Ａ</t>
   </si>
   <si>
+    <t>Ｓ</t>
+  </si>
+  <si>
+    <t>熊手</t>
+  </si>
+  <si>
+    <t>横扫</t>
+  </si>
+  <si>
+    <t>旋风</t>
+  </si>
+  <si>
+    <t>火矢</t>
+  </si>
+  <si>
+    <t>贯箭</t>
+  </si>
+  <si>
+    <t>乱射</t>
+  </si>
+  <si>
+    <t>突破</t>
+  </si>
+  <si>
+    <t>突进</t>
+  </si>
+  <si>
+    <t>Ｃ</t>
+  </si>
+  <si>
+    <t>破碎</t>
+  </si>
+  <si>
+    <t>放射</t>
+  </si>
+  <si>
+    <t>猛撞</t>
+  </si>
+  <si>
+    <t>costEnergy</t>
+  </si>
+  <si>
+    <t>isRange</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击额外位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkDurability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canDamageMachine</t>
+  </si>
+  <si>
+    <t>canDamageBoat</t>
+  </si>
+  <si>
+    <t>canDamageTeam</t>
+  </si>
+  <si>
+    <t>误伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canDamageTroop</t>
+  </si>
+  <si>
+    <t>攻击部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellRanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkOffsetPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井阑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艨艟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canDamageBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>二段突刺</t>
-  </si>
-  <si>
-    <t>Ｓ</t>
-  </si>
-  <si>
-    <t>熊手</t>
-  </si>
-  <si>
-    <t>横扫</t>
-  </si>
-  <si>
-    <t>旋风</t>
-  </si>
-  <si>
-    <t>火矢</t>
-  </si>
-  <si>
-    <t>贯箭</t>
-  </si>
-  <si>
-    <t>乱射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标撞击伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突击</t>
-  </si>
-  <si>
-    <t>突破</t>
-  </si>
-  <si>
-    <t>突进</t>
-  </si>
-  <si>
-    <t>Ｃ</t>
-  </si>
-  <si>
-    <t>破碎</t>
-  </si>
-  <si>
-    <t>放射</t>
-  </si>
-  <si>
-    <t>猛撞</t>
-  </si>
-  <si>
-    <t>costEnergy</t>
-  </si>
-  <si>
-    <t>isRange</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击额外位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战普攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程普攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkDurability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canDamageMachine</t>
-  </si>
-  <si>
-    <t>canDamageBoat</t>
-  </si>
-  <si>
-    <t>canDamageTeam</t>
-  </si>
-  <si>
-    <t>误伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canDamageTroop</t>
-  </si>
-  <si>
-    <t>攻击部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spellRanges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkOffsetPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井阑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投石船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艨艟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canDamageBuilding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offsetAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,2,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,38 +1161,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="70.5" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="70.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1153,45 +1213,54 @@
         <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,22 +1279,25 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1235,41 +1307,47 @@
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1278,8 +1356,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1311,13 +1392,13 @@
         <v>4</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>8</v>
@@ -1326,19 +1407,28 @@
         <v>8</v>
       </c>
       <c r="P4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -1356,42 +1446,42 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="4">
-        <f>IFERROR(VLOOKUP(Q5,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4">
+        <f>IFERROR(VLOOKUP(T5,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -1409,36 +1499,36 @@
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="4">
-        <f>IFERROR(VLOOKUP(Q6,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="4">
+        <f>IFERROR(VLOOKUP(T6,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1446,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4">
         <v>25</v>
@@ -1463,39 +1553,42 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="4">
-        <f>IFERROR(VLOOKUP(Q7,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4">
+        <f>IFERROR(VLOOKUP(T7,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1503,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
@@ -1520,44 +1613,44 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="4">
-        <f>IFERROR(VLOOKUP(Q8,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="4">
+        <f>IFERROR(VLOOKUP(T8,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4">
         <v>35</v>
@@ -1574,47 +1667,50 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="4">
-        <f>IFERROR(VLOOKUP(Q9,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4">
+        <f>IFERROR(VLOOKUP(T9,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4">
         <v>25</v>
@@ -1631,44 +1727,47 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="4">
-        <f>IFERROR(VLOOKUP(Q10,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4">
+        <f>IFERROR(VLOOKUP(T10,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4">
         <v>30</v>
@@ -1686,46 +1785,46 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="4">
-        <f>IFERROR(VLOOKUP(Q11,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4">
+        <f>IFERROR(VLOOKUP(T11,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4">
         <v>33</v>
@@ -1743,46 +1842,46 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="4">
-        <f>IFERROR(VLOOKUP(Q12,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4">
+        <f>IFERROR(VLOOKUP(T12,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA12" s="4"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -1799,44 +1898,44 @@
       <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="4">
-        <f>IFERROR(VLOOKUP(Q13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="4">
+        <f>IFERROR(VLOOKUP(T13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -1854,46 +1953,46 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="4">
-        <f>IFERROR(VLOOKUP(Q14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="4">
+        <f>IFERROR(VLOOKUP(T14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA14" s="4"/>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4">
         <v>25</v>
@@ -1911,46 +2010,46 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="4">
-        <f>IFERROR(VLOOKUP(Q15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="4">
+        <f>IFERROR(VLOOKUP(T15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AA15" s="4"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4">
         <v>30</v>
@@ -1967,44 +2066,47 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="4">
-        <f>IFERROR(VLOOKUP(Q16,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="4">
+        <f>IFERROR(VLOOKUP(T16,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA16" s="4"/>
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4">
         <v>35</v>
@@ -2021,44 +2123,47 @@
       <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="4">
-        <f>IFERROR(VLOOKUP(Q17,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="4">
+        <f>IFERROR(VLOOKUP(T17,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4">
         <v>40</v>
@@ -2075,44 +2180,47 @@
       <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="4">
-        <f>IFERROR(VLOOKUP(Q18,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="4">
+        <f>IFERROR(VLOOKUP(T18,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA18" s="4"/>
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4">
         <v>15</v>
@@ -2129,42 +2237,42 @@
       <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="4">
-        <f>IFERROR(VLOOKUP(Q19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="4">
+        <f>IFERROR(VLOOKUP(T19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="T19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA19" s="4"/>
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2181,42 +2289,42 @@
       <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="4">
-        <f>IFERROR(VLOOKUP(Q20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="P20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="4">
+        <f>IFERROR(VLOOKUP(T20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="T20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -2233,34 +2341,34 @@
       <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="4">
-        <f>IFERROR(VLOOKUP(Q21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="4">
+        <f>IFERROR(VLOOKUP(T21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA21" s="4"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2268,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="4">
         <v>20</v>
@@ -2283,44 +2391,44 @@
         <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="4">
-        <f>IFERROR(VLOOKUP(Q22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="4">
+        <f>IFERROR(VLOOKUP(T22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4">
         <v>15</v>
@@ -2337,42 +2445,42 @@
       <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="4">
-        <f>IFERROR(VLOOKUP(Q23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="4">
+        <f>IFERROR(VLOOKUP(T23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4">
         <v>25</v>
@@ -2389,34 +2497,34 @@
       <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="4">
-        <f>IFERROR(VLOOKUP(Q24,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="P24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="4">
+        <f>IFERROR(VLOOKUP(T24,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2424,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4">
         <v>35</v>
@@ -2439,36 +2547,36 @@
         <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="4">
-        <f>IFERROR(VLOOKUP(Q25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="4">
+        <f>IFERROR(VLOOKUP(T25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="T25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA25" s="4"/>
+      <c r="AC25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2476,16 +2584,16 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA26" s="4"/>
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2494,16 +2602,16 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA27" s="4"/>
+      <c r="AC27" s="4"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2511,16 +2619,16 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA28" s="4"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2528,16 +2636,16 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA29" s="4"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2545,16 +2653,16 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2562,16 +2670,16 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA31" s="4"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2579,16 +2687,16 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2596,16 +2704,16 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2613,16 +2721,16 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2630,16 +2738,16 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2647,16 +2755,16 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2664,16 +2772,16 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2681,16 +2789,16 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA38" s="4"/>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2698,16 +2806,16 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA39" s="4"/>
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2715,14 +2823,14 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2730,14 +2838,14 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA41" s="4"/>
+      <c r="AC41" s="4"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2745,14 +2853,14 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA42" s="4"/>
+      <c r="AC42" s="4"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2760,14 +2868,14 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA43" s="4"/>
+      <c r="AC43" s="4"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2775,141 +2883,141 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA44" s="4"/>
+      <c r="AC44" s="4"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="AA45" s="4"/>
+      <c r="AC45" s="4"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Z46" s="4"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AC46" s="4"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC051BE-01ED-4482-BBBA-B9A7251A0D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D76E6F4-16B6-4577-B0D7-A2D0150D7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="3828" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="1932" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1168,7 @@
   <dimension ref="A1:AD69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1902,9 @@
       <c r="I13" s="4">
         <v>2</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2237,6 +2244,9 @@
       <c r="I19" s="4">
         <v>2</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="N19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2444,6 +2454,9 @@
       </c>
       <c r="I23" s="4">
         <v>2</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>6</v>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D76E6F4-16B6-4577-B0D7-A2D0150D7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A12DCF-2569-47AD-9F99-CF0EB57711A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="1932" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,22 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>successRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>successRateAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,40 +1181,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.75" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.21875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="70.44140625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="70.5" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1217,54 +1235,60 @@
         <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="8"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="6"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,17 +1310,19 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1317,43 +1343,47 @@
         <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -1363,8 +1393,10 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-    </row>
-    <row r="4" spans="1:30" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1387,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>4</v>
@@ -1402,13 +1434,13 @@
         <v>4</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>8</v>
@@ -1420,14 +1452,20 @@
         <v>8</v>
       </c>
       <c r="S4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1444,18 +1482,16 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1463,23 +1499,29 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="4">
-        <f>IFERROR(VLOOKUP(T5,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="4">
+        <f>IFERROR(VLOOKUP(V5,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1497,18 +1539,16 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,23 +1556,29 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="4">
-        <f>IFERROR(VLOOKUP(T6,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="4">
+        <f>IFERROR(VLOOKUP(V6,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1551,48 +1597,52 @@
       <c r="G7" s="4">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="4">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="4">
-        <f>IFERROR(VLOOKUP(T7,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="4">
+        <f>IFERROR(VLOOKUP(V7,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1611,42 +1661,46 @@
       <c r="G8" s="4">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="4">
+        <v>70</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
-        <f>IFERROR(VLOOKUP(T8,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4">
+        <f>IFERROR(VLOOKUP(V8,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1665,48 +1719,52 @@
       <c r="G9" s="4">
         <v>25</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="4">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="4">
-        <f>IFERROR(VLOOKUP(T9,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4">
+        <f>IFERROR(VLOOKUP(V9,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1725,45 +1783,49 @@
       <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="4">
+        <v>70</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="4">
-        <f>IFERROR(VLOOKUP(T10,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="4">
+        <f>IFERROR(VLOOKUP(V10,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1782,45 +1844,49 @@
       <c r="G11" s="4">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="4">
+        <v>70</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="4">
-        <f>IFERROR(VLOOKUP(T11,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <f>IFERROR(VLOOKUP(V11,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1839,45 +1905,49 @@
       <c r="G12" s="4">
         <v>25</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="4">
+        <v>65</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="4">
-        <f>IFERROR(VLOOKUP(T12,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="4">
+        <f>IFERROR(VLOOKUP(V12,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1896,21 +1966,19 @@
       <c r="G13" s="4">
         <v>15</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="4">
+        <v>75</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1918,23 +1986,29 @@
         <v>6</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="4">
-        <f>IFERROR(VLOOKUP(T13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="4">
+        <f>IFERROR(VLOOKUP(V13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1953,21 +2027,19 @@
       <c r="G14" s="4">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="4">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1975,23 +2047,29 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="4">
-        <f>IFERROR(VLOOKUP(T14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="4">
+        <f>IFERROR(VLOOKUP(V14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2010,21 +2088,19 @@
       <c r="G15" s="4">
         <v>25</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="4">
+        <v>65</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4">
         <v>2</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2032,23 +2108,29 @@
         <v>6</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="4">
-        <f>IFERROR(VLOOKUP(T15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="4">
+        <f>IFERROR(VLOOKUP(V15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2067,45 +2149,49 @@
       <c r="G16" s="4">
         <v>15</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="4">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="4">
-        <f>IFERROR(VLOOKUP(T16,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="4">
+        <f>IFERROR(VLOOKUP(V16,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE16" s="4"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2124,45 +2210,49 @@
       <c r="G17" s="4">
         <v>20</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="4">
+        <v>65</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="4">
-        <f>IFERROR(VLOOKUP(T17,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="4">
+        <f>IFERROR(VLOOKUP(V17,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE17" s="4"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2181,45 +2271,49 @@
       <c r="G18" s="4">
         <v>25</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="4">
+        <v>60</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="4">
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="4">
-        <f>IFERROR(VLOOKUP(T18,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="4">
+        <f>IFERROR(VLOOKUP(V18,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE18" s="4"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2238,21 +2332,19 @@
       <c r="G19" s="4">
         <v>15</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2260,21 +2352,27 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="4">
-        <f>IFERROR(VLOOKUP(T19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="4">
+        <f>IFERROR(VLOOKUP(V19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE19" s="4"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2293,40 +2391,44 @@
       <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="4">
+        <v>100</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="4">
         <v>1</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="P20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="4">
-        <f>IFERROR(VLOOKUP(T20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="4">
+        <f>IFERROR(VLOOKUP(V20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE20" s="4"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2345,20 +2447,18 @@
       <c r="G21" s="4">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="4">
+        <v>100</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
         <v>1</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>6</v>
@@ -2366,19 +2466,25 @@
       <c r="R21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="4">
-        <f>IFERROR(VLOOKUP(T21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+      <c r="S21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="4">
+        <f>IFERROR(VLOOKUP(V21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE21" s="4"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2397,18 +2503,16 @@
       <c r="G22" s="4">
         <v>20</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="H22" s="4">
+        <v>100</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2416,21 +2520,27 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="4">
-        <f>IFERROR(VLOOKUP(T22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="4">
+        <f>IFERROR(VLOOKUP(V22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE22" s="4"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2449,21 +2559,19 @@
       <c r="G23" s="4">
         <v>15</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="4">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="4">
         <v>2</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2471,21 +2579,27 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="4">
-        <f>IFERROR(VLOOKUP(T23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="4">
+        <f>IFERROR(VLOOKUP(V23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE23" s="4"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2504,18 +2618,16 @@
       <c r="G24" s="4">
         <v>15</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="4">
+        <v>70</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="4">
         <v>1</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="P24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2523,21 +2635,27 @@
         <v>7</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" s="4">
-        <f>IFERROR(VLOOKUP(T24,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="4">
+        <f>IFERROR(VLOOKUP(V24,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE24" s="4"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2556,18 +2674,16 @@
       <c r="G25" s="4">
         <v>20</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="4">
+        <v>100</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="P25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2575,38 +2691,46 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="4">
-        <f>IFERROR(VLOOKUP(T25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="4">
+        <f>IFERROR(VLOOKUP(V25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE25" s="4"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE26" s="4"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2614,423 +2738,459 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE27" s="4"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE28" s="4"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE30" s="4"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE34" s="4"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE36" s="4"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE37" s="4"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE38" s="4"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE39" s="4"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
       <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE40" s="4"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
       <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE41" s="4"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
       <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE42" s="4"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
       <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE43" s="4"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
       <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="Y46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AC46" s="4"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A12DCF-2569-47AD-9F99-CF0EB57711A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A2743-0CAD-4A5B-B277-E9D5D3F638D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,29 +98,12 @@
     <t>必要适性</t>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>突刺</t>
   </si>
   <si>
-    <t>Ｂ</t>
-  </si>
-  <si>
     <t>螺旋突刺</t>
   </si>
   <si>
-    <t>Ａ</t>
-  </si>
-  <si>
-    <t>Ｓ</t>
-  </si>
-  <si>
     <t>熊手</t>
   </si>
   <si>
@@ -148,9 +128,6 @@
     <t>突进</t>
   </si>
   <si>
-    <t>Ｃ</t>
-  </si>
-  <si>
     <t>破碎</t>
   </si>
   <si>
@@ -166,9 +143,6 @@
     <t>isRange</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +348,29 @@
   </si>
   <si>
     <t>successRateAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needAblilityLevel</t>
+  </si>
+  <si>
+    <t>必要兵装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,329 +566,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="info"/>
-      <sheetName val="force"/>
-      <sheetName val="corps"/>
-      <sheetName val="city"/>
-      <sheetName val="gate"/>
-      <sheetName val="port"/>
-      <sheetName val="person"/>
-      <sheetName val="treasure"/>
-      <sheetName val="troops"/>
-      <sheetName val="troops_type"/>
-      <sheetName val="troops_animation"/>
-      <sheetName val="cell"/>
-      <sheetName val="building"/>
-      <sheetName val="building_type"/>
-      <sheetName val="technique"/>
-      <sheetName val="terrain_type"/>
-      <sheetName val="features"/>
-      <sheetName val="skill"/>
-      <sheetName val="area"/>
-      <sheetName val="enum"/>
-      <sheetName val="official"/>
-      <sheetName val="state"/>
-      <sheetName val="learning"/>
-      <sheetName val="duke"/>
-      <sheetName val="country"/>
-      <sheetName val="first_name"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>Ｃ</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>Ｂ</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>Ａ</v>
-          </cell>
-          <cell r="H5">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>Ｓ</v>
-          </cell>
-          <cell r="H6">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H10">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H11">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H12">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H13">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H14">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H15">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H16">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H17">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H18">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H19">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H20">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H21">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H22">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H23">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H24">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H25">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H26">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H27">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H28">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H29">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H30">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="G31" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H31">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H32">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H33">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34" t="str">
-            <v>ＳＳ</v>
-          </cell>
-          <cell r="H34">
-            <v>31</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,31 +866,31 @@
     <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="70.5" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="70.5" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -1226,69 +900,74 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="12"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="12"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="6"/>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="6"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,80 +991,86 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="X2" s="14"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="Y2" s="14"/>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="14"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -1395,61 +1080,62 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>8</v>
@@ -1458,1033 +1144,1047 @@
         <v>8</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="13"/>
       <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>100</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="4">
-        <f>IFERROR(VLOOKUP(V5,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>100</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="4">
-        <f>IFERROR(VLOOKUP(V6,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="Z6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
         <v>25</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>70</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="4">
-        <f>IFERROR(VLOOKUP(V7,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
         <v>30</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>20</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="4">
-        <f>IFERROR(VLOOKUP(V8,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>35</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>25</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>60</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="4">
-        <f>IFERROR(VLOOKUP(V9,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="Z9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
         <v>25</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>70</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="4">
-        <f>IFERROR(VLOOKUP(V10,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="Z10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
         <v>30</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>20</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>70</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>7</v>
+      <c r="O11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="4">
-        <f>IFERROR(VLOOKUP(V11,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <v>33</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>25</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>7</v>
+      <c r="O12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="4">
-        <f>IFERROR(VLOOKUP(V12,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
         <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>15</v>
       </c>
       <c r="G13" s="4">
         <v>15</v>
       </c>
       <c r="H13" s="4">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
         <v>75</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="4">
-        <f>IFERROR(VLOOKUP(V13,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X13" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
         <v>20</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>15</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>20</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>70</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>6</v>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="4">
-        <f>IFERROR(VLOOKUP(V14,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD14" s="4"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
         <v>25</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>15</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>65</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="4">
-        <f>IFERROR(VLOOKUP(V15,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="Z15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AE15" s="4"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AD15" s="4"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
         <v>30</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>15</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>70</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>6</v>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" s="4">
-        <f>IFERROR(VLOOKUP(V16,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X16" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="Z16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD16" s="4"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
         <v>35</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>20</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>65</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
         <v>1</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="4">
-        <f>IFERROR(VLOOKUP(V17,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Z17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD17" s="4"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
         <v>40</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>25</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>60</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="4">
         <v>1</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="4">
-        <f>IFERROR(VLOOKUP(V18,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X18" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="Z18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD18" s="4"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
         <v>15</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>20</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>15</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>100</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19" s="4">
-        <f>IFERROR(VLOOKUP(V19,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA19" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD19" s="4"/>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>120</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>100</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="S20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="4">
-        <f>IFERROR(VLOOKUP(V20,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA20" s="4"/>
+      <c r="U20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD20" s="4"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
         <v>20</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>150</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>15</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>100</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4">
         <v>1</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="4">
-        <f>IFERROR(VLOOKUP(V21,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA21" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD21" s="4"/>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2492,66 +2192,71 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>80</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>20</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>100</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>6</v>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>8</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U22" s="4">
-        <f>IFERROR(VLOOKUP(V22,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA22" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD22" s="4"/>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>15</v>
@@ -2560,102 +2265,109 @@
         <v>15</v>
       </c>
       <c r="H23" s="4">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4">
         <v>100</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>10</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="4">
-        <f>IFERROR(VLOOKUP(V23,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA23" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD23" s="4"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
         <v>25</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>15</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>70</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>11</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="4">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U24" s="4">
-        <f>IFERROR(VLOOKUP(V24,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA24" s="4"/>
+      <c r="U24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AE24" s="4"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD24" s="4"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2663,55 +2375,60 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
         <v>35</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>80</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>20</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>100</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>6</v>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U25" s="4">
-        <f>IFERROR(VLOOKUP(V25,[1]enum!$G$3:$H$34,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA25" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AE25" s="4"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD25" s="4"/>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2720,17 +2437,18 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="Z26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AE26" s="4"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD26" s="4"/>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2740,17 +2458,18 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="AA27" s="4"/>
+      <c r="Z27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AE27" s="4"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD27" s="4"/>
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2759,17 +2478,18 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="AA28" s="4"/>
+      <c r="Z28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AE28" s="4"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD28" s="4"/>
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2778,17 +2498,18 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="AA29" s="4"/>
+      <c r="Z29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AE29" s="4"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD29" s="4"/>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2797,17 +2518,18 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="AA30" s="4"/>
+      <c r="Z30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AE30" s="4"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD30" s="4"/>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2816,17 +2538,18 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="AA31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AE31" s="4"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD31" s="4"/>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2835,17 +2558,18 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="4"/>
+      <c r="Z32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AE32" s="4"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD32" s="4"/>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2854,17 +2578,18 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="X33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="AA33" s="4"/>
+      <c r="Z33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AE33" s="4"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD33" s="4"/>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2873,17 +2598,18 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="N34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="AA34" s="4"/>
+      <c r="Z34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AE34" s="4"/>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD34" s="4"/>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2892,17 +2618,18 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="AA35" s="4"/>
+      <c r="Z35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AE35" s="4"/>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD35" s="4"/>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2911,17 +2638,18 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="AA36" s="4"/>
+      <c r="Z36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AE36" s="4"/>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD36" s="4"/>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2930,17 +2658,18 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="AA37" s="4"/>
+      <c r="Z37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AE37" s="4"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD37" s="4"/>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2949,17 +2678,18 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="4"/>
+      <c r="Z38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AE38" s="4"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD38" s="4"/>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2968,17 +2698,18 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="N39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="AA39" s="4"/>
+      <c r="Z39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AE39" s="4"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD39" s="4"/>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2987,15 +2718,16 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="AA40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AE40" s="4"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD40" s="4"/>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3004,15 +2736,16 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="AA41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AE41" s="4"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD41" s="4"/>
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3021,15 +2754,16 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="AA42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AE42" s="4"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD42" s="4"/>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3038,15 +2772,16 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="AA43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="N43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AE43" s="4"/>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD43" s="4"/>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3055,142 +2790,167 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="AA44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AE44" s="4"/>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD44" s="4"/>
+      <c r="AF44" s="4"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="AA45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AE45" s="4"/>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AD45" s="4"/>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AE46" s="4"/>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/技能配置.xlsx
+++ b/Data/Export/Common/技能配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A2743-0CAD-4A5B-B277-E9D5D3F638D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE543F-B9A8-41D8-A10A-D44A56C92945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="1092" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -857,40 +857,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.25" style="2" customWidth="1"/>
-    <col min="27" max="27" width="70.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.21875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="70.44140625" style="2" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -967,7 +967,7 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="AD5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1269,7 +1269,7 @@
       <c r="AD6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="AD7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="AD8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="AD9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="AD10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="AD11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="AD12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="AD13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="AD14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="AD15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="AD16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="AD17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="AD18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2049,10 +2049,10 @@
         <v>6</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>6</v>
@@ -2065,7 +2065,7 @@
       <c r="AD19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="AD20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="AD21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="AD22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="AD23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2351,13 +2351,13 @@
         <v>6</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>7</v>
@@ -2367,7 +2367,7 @@
       <c r="AD24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="AD25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2448,7 +2448,7 @@
       <c r="AD26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2469,7 +2469,7 @@
       <c r="AD27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2489,7 +2489,7 @@
       <c r="AD28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2509,7 +2509,7 @@
       <c r="AD29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2529,7 +2529,7 @@
       <c r="AD30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2549,7 +2549,7 @@
       <c r="AD31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2569,7 +2569,7 @@
       <c r="AD32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2589,7 +2589,7 @@
       <c r="AD33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2609,7 +2609,7 @@
       <c r="AD34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2629,7 +2629,7 @@
       <c r="AD35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2649,7 +2649,7 @@
       <c r="AD36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2669,7 +2669,7 @@
       <c r="AD37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2689,7 +2689,7 @@
       <c r="AD38" s="4"/>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2709,7 +2709,7 @@
       <c r="AD39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2727,7 +2727,7 @@
       <c r="AD40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2745,7 +2745,7 @@
       <c r="AD41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2763,7 +2763,7 @@
       <c r="AD42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2781,7 +2781,7 @@
       <c r="AD43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2799,7 +2799,7 @@
       <c r="AD44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2809,7 +2809,7 @@
       <c r="AD45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2818,139 +2818,139 @@
       <c r="AD46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
   </sheetData>
